--- a/Chevron_2021_Datathon_Challenge/filesFor30MinBeforeJudging/submission_file.xlsx
+++ b/Chevron_2021_Datathon_Challenge/filesFor30MinBeforeJudging/submission_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chevron-my.sharepoint.com/personal/adesola_akinfenwa_chevron_com/Documents/IT Recruiting/2021 Rice Datathon Chevron Challenge/filesFor30MinBeforeJudging/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhuck/Documents/Datathon2021/Chevron_2021_Datathon_Challenge/filesFor30MinBeforeJudging/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48011597-AE02-477D-8769-295BE1436181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910E2FEB-2BB2-2E41-AEAC-2E798690B540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="11550" windowHeight="9620" activeTab="1" xr2:uid="{0043363B-557A-45D6-AF54-D40A1B6BF509}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13920" windowHeight="18140" xr2:uid="{0043363B-557A-45D6-AF54-D40A1B6BF509}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="1" r:id="rId1"/>
@@ -413,19 +413,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8E711D-5A48-425B-9852-D9F57715AA1C}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -464,10 +464,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -478,10 +478,10 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -492,10 +492,10 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -506,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -520,10 +520,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -534,10 +534,10 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -548,10 +548,10 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -562,10 +562,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2000</v>
       </c>
@@ -576,10 +576,10 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -590,10 +590,10 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -604,10 +604,10 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -618,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -632,10 +632,10 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2000</v>
       </c>
@@ -646,10 +646,10 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -660,10 +660,10 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3000</v>
       </c>
@@ -674,10 +674,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3000</v>
       </c>
@@ -688,10 +688,10 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3000</v>
       </c>
@@ -702,10 +702,10 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3000</v>
       </c>
@@ -716,10 +716,10 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -730,10 +730,10 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3000</v>
       </c>
@@ -744,10 +744,10 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3000</v>
       </c>
@@ -758,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3000</v>
       </c>
@@ -772,10 +772,10 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4000</v>
       </c>
@@ -786,10 +786,10 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4000</v>
       </c>
@@ -800,10 +800,10 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4000</v>
       </c>
@@ -814,10 +814,10 @@
         <v>3</v>
       </c>
       <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4000</v>
       </c>
@@ -828,10 +828,10 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4000</v>
       </c>
@@ -842,10 +842,10 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4000</v>
       </c>
@@ -856,10 +856,10 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4000</v>
       </c>
@@ -870,10 +870,10 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4000</v>
       </c>
@@ -884,7 +884,7 @@
         <v>4</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -897,17 +897,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E344532-D268-4871-B56E-C4D516BA1A6A}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
+    <col min="1" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -939,17 +939,17 @@
       </c>
       <c r="E2">
         <f>(Predictions!D2-RMSE!D2)^2</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="1">
         <f>SQRT(AVERAGE(E2:E33))</f>
-        <v>11.326131290074294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3.8689468851355402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -964,10 +964,10 @@
       </c>
       <c r="E3">
         <f>(Predictions!D3-RMSE!D3)^2</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -982,10 +982,10 @@
       </c>
       <c r="E4">
         <f>(Predictions!D4-RMSE!D4)^2</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -1000,10 +1000,10 @@
       </c>
       <c r="E5">
         <f>(Predictions!D5-RMSE!D5)^2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1000</v>
       </c>
@@ -1018,10 +1018,10 @@
       </c>
       <c r="E6">
         <f>(Predictions!D6-RMSE!D6)^2</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1000</v>
       </c>
@@ -1036,10 +1036,10 @@
       </c>
       <c r="E7">
         <f>(Predictions!D7-RMSE!D7)^2</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1000</v>
       </c>
@@ -1054,10 +1054,10 @@
       </c>
       <c r="E8">
         <f>(Predictions!D8-RMSE!D8)^2</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1000</v>
       </c>
@@ -1072,10 +1072,10 @@
       </c>
       <c r="E9">
         <f>(Predictions!D9-RMSE!D9)^2</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2000</v>
       </c>
@@ -1090,10 +1090,10 @@
       </c>
       <c r="E10">
         <f>(Predictions!D10-RMSE!D10)^2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2000</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -1126,10 +1126,10 @@
       </c>
       <c r="E12">
         <f>(Predictions!D12-RMSE!D12)^2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -1162,10 +1162,10 @@
       </c>
       <c r="E14">
         <f>(Predictions!D14-RMSE!D14)^2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -1180,10 +1180,10 @@
       </c>
       <c r="E15">
         <f>(Predictions!D15-RMSE!D15)^2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2000</v>
       </c>
@@ -1198,10 +1198,10 @@
       </c>
       <c r="E16">
         <f>(Predictions!D16-RMSE!D16)^2</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2000</v>
       </c>
@@ -1216,10 +1216,10 @@
       </c>
       <c r="E17">
         <f>(Predictions!D17-RMSE!D17)^2</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3000</v>
       </c>
@@ -1234,10 +1234,10 @@
       </c>
       <c r="E18">
         <f>(Predictions!D18-RMSE!D18)^2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3000</v>
       </c>
@@ -1252,10 +1252,10 @@
       </c>
       <c r="E19">
         <f>(Predictions!D19-RMSE!D19)^2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3000</v>
       </c>
@@ -1270,10 +1270,10 @@
       </c>
       <c r="E20">
         <f>(Predictions!D20-RMSE!D20)^2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3000</v>
       </c>
@@ -1288,10 +1288,10 @@
       </c>
       <c r="E21">
         <f>(Predictions!D21-RMSE!D21)^2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -1306,10 +1306,10 @@
       </c>
       <c r="E22">
         <f>(Predictions!D22-RMSE!D22)^2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3000</v>
       </c>
@@ -1324,10 +1324,10 @@
       </c>
       <c r="E23">
         <f>(Predictions!D23-RMSE!D23)^2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3000</v>
       </c>
@@ -1342,10 +1342,10 @@
       </c>
       <c r="E24">
         <f>(Predictions!D24-RMSE!D24)^2</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3000</v>
       </c>
@@ -1360,10 +1360,10 @@
       </c>
       <c r="E25">
         <f>(Predictions!D25-RMSE!D25)^2</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4000</v>
       </c>
@@ -1378,10 +1378,10 @@
       </c>
       <c r="E26">
         <f>(Predictions!D26-RMSE!D26)^2</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4000</v>
       </c>
@@ -1396,10 +1396,10 @@
       </c>
       <c r="E27">
         <f>(Predictions!D27-RMSE!D27)^2</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4000</v>
       </c>
@@ -1414,10 +1414,10 @@
       </c>
       <c r="E28">
         <f>(Predictions!D28-RMSE!D28)^2</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4000</v>
       </c>
@@ -1432,10 +1432,10 @@
       </c>
       <c r="E29">
         <f>(Predictions!D29-RMSE!D29)^2</f>
-        <v>576</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4000</v>
       </c>
@@ -1450,10 +1450,10 @@
       </c>
       <c r="E30">
         <f>(Predictions!D30-RMSE!D30)^2</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4000</v>
       </c>
@@ -1468,10 +1468,10 @@
       </c>
       <c r="E31">
         <f>(Predictions!D31-RMSE!D31)^2</f>
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4000</v>
       </c>
@@ -1486,10 +1486,10 @@
       </c>
       <c r="E32">
         <f>(Predictions!D32-RMSE!D32)^2</f>
-        <v>324</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4000</v>
       </c>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="E33">
         <f>(Predictions!D33-RMSE!D33)^2</f>
-        <v>1369</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Chevron_2021_Datathon_Challenge/filesFor30MinBeforeJudging/submission_file.xlsx
+++ b/Chevron_2021_Datathon_Challenge/filesFor30MinBeforeJudging/submission_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhuck/Documents/Datathon2021/Chevron_2021_Datathon_Challenge/filesFor30MinBeforeJudging/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910E2FEB-2BB2-2E41-AEAC-2E798690B540}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFA1DA2-F2DF-5042-A310-D9C385BDC6CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="13920" windowHeight="18140" xr2:uid="{0043363B-557A-45D6-AF54-D40A1B6BF509}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>StoreNumber</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>RMSE   =</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8E711D-5A48-425B-9852-D9F57715AA1C}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -885,6 +888,11 @@
       </c>
       <c r="D33">
         <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
